--- a/untranslated/downloads/data-excel/13.1.3.xlsx
+++ b/untranslated/downloads/data-excel/13.1.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОКАЗАТЕЛИ ЦУР 2023\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Наименование показателей</t>
   </si>
@@ -62,16 +62,10 @@
     <t>Number of local governments that adopt and implement local DRR strategies in line with national strategies</t>
   </si>
   <si>
-    <t>484</t>
-  </si>
-  <si>
     <t>13.1.3 Доля местных органов власти, принявших и осуществляющих местные стратегии снижения риска бедствий в соответствии с национальными стратегиями снижения риска бедствий</t>
   </si>
   <si>
     <t>13.1.3 Proportion of local governments that adopt and implement local disaster risk reduction strategies in line with national disaster risk reduction strategies</t>
-  </si>
-  <si>
-    <t>1.5.4 Кырсыктардын кооптуулугун азайтуунун улуттук стратегияларына ылайык, кырсыктардын кооптуулугун азайтуунун жергиликтүү стратегияларын кабыл алган жана ишке ашырган жергиликтүү бийлик органдарынын үлүшү</t>
   </si>
   <si>
     <t>Жергиликтүү бийлик органдарынын саны</t>
@@ -81,6 +75,9 @@
   </si>
   <si>
     <t>Улуттук стратегияларга ылайык, кырсыктардын кооптуулугун азайтуу боюнча жергиликтүү DRR стратегияларын кабыл алган жана ишке ашырган жергиликтүү бийлик органдарынын саны</t>
+  </si>
+  <si>
+    <t>13.1.3 Кырсыктардын кооптуулугун азайтуунун улуттук стратегияларына ылайык, кырсыктардын кооптуулугун азайтуунун жергиликтүү стратегияларын кабыл алган жана ишке ашырган жергиликтүү бийлик органдарынын үлүшү</t>
   </si>
 </sst>
 </file>
@@ -8123,33 +8120,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="78.75" customHeight="1">
+    <row r="1" spans="1:8" ht="78.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -8162,10 +8157,22 @@
       <c r="D3" s="4">
         <v>2019</v>
       </c>
+      <c r="E3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1">
+    <row r="4" spans="1:8" ht="22.5" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>3</v>
@@ -8173,13 +8180,25 @@
       <c r="C4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>9</v>
+      <c r="D4" s="16">
+        <v>484</v>
+      </c>
+      <c r="E4" s="16">
+        <v>484</v>
+      </c>
+      <c r="F4" s="16">
+        <v>484</v>
+      </c>
+      <c r="G4" s="16">
+        <v>484</v>
+      </c>
+      <c r="H4" s="16">
+        <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="42" customHeight="1">
+    <row r="5" spans="1:8" ht="42" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>4</v>
@@ -8190,10 +8209,22 @@
       <c r="D5" s="17">
         <v>10.12397</v>
       </c>
+      <c r="E5" s="17">
+        <v>13.2</v>
+      </c>
+      <c r="F5" s="17">
+        <v>21.5</v>
+      </c>
+      <c r="G5" s="17">
+        <v>34.5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>40.53</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
+    <row r="6" spans="1:8" ht="57.75" customHeight="1" thickBot="1">
       <c r="A6" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
@@ -8204,6 +8235,18 @@
       <c r="D6" s="12">
         <v>49</v>
       </c>
+      <c r="E6" s="12">
+        <v>67</v>
+      </c>
+      <c r="F6" s="12">
+        <v>104</v>
+      </c>
+      <c r="G6" s="12">
+        <v>167</v>
+      </c>
+      <c r="H6" s="12">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
